--- a/examples/wangetal2018/out/ResultFiles/AC_0.2_b.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_0.2_b.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -171,12 +171,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -231,6 +231,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -324,15 +330,9 @@
     <t>Electric power (kW)</t>
   </si>
   <si>
-    <t>Supply compressor</t>
-  </si>
-  <si>
     <t>CS1</t>
   </si>
   <si>
-    <t>C_1_0</t>
-  </si>
-  <si>
     <t>CS2</t>
   </si>
   <si>
@@ -396,10 +396,7 @@
     <t>PI03</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_0</t>
-  </si>
-  <si>
-    <t>PI04_remaining</t>
+    <t>PI04</t>
   </si>
   <si>
     <t>PI05</t>
@@ -429,9 +426,6 @@
     <t>N04</t>
   </si>
   <si>
-    <t>N_post_C_1_0</t>
-  </si>
-  <si>
     <t>N05</t>
   </si>
   <si>
@@ -450,9 +444,6 @@
     <t>N03</t>
   </si>
   <si>
-    <t>N_pre_C_1_0</t>
-  </si>
-  <si>
     <t>N06</t>
   </si>
   <si>
@@ -489,7 +480,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -499,12 +490,6 @@
   </si>
   <si>
     <t>Total cost ($)</t>
-  </si>
-  <si>
-    <t>Supply compressor from_node</t>
-  </si>
-  <si>
-    <t>New</t>
   </si>
   <si>
     <t>Node</t>
@@ -1134,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1156,10 +1141,10 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.1429614267796263</v>
+        <v>0.1326080038303631</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1170,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1178,10 +1163,10 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.006022467835471315</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1189,10 +1174,10 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.03070505816052198</v>
+        <v>0.03136208011072586</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1200,10 +1185,10 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.006022467835471315</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1211,10 +1196,10 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.006344998889405127</v>
+        <v>0.006480768166328964</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1222,10 +1207,10 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.01504279343505596</v>
+        <v>0.01536467673609206</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1236,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1247,7 +1232,7 @@
         <v>0.01701801172198347</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1255,10 +1240,10 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.04204017368165822</v>
+        <v>0.04545906832587318</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1269,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1280,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1288,10 +1273,10 @@
         <v>49</v>
       </c>
       <c r="B14">
-        <v>0.0006360172658494168</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1299,10 +1284,10 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>0.001789442445026831</v>
+        <v>0.001945463804765969</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1310,10 +1295,10 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>0.01681905613978473</v>
+        <v>0.01446332065424047</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1321,10 +1306,10 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>0.000520939369397835</v>
+        <v>0.0005146143103530781</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1335,7 +1320,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1346,7 +1331,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1357,7 +1342,7 @@
         <v>9.271350212696891</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1368,7 +1353,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1379,7 +1364,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1390,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1401,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1409,7 +1394,7 @@
         <v>59</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1417,10 +1402,10 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>3168.402659680039</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1428,10 +1413,10 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>2392.436654097828</v>
+        <v>2587.000285667391</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1439,10 +1424,10 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>99.6848605874095</v>
+        <v>107.7916785694746</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1453,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1464,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1472,10 +1457,10 @@
         <v>64</v>
       </c>
       <c r="B31">
-        <v>19907382.05215155</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1486,7 +1471,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1497,7 +1482,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1508,136 +1493,121 @@
         <v>24862120</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>7.406825856025969</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="G46" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="G51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B51">
-        <v>0.157788912608102</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>211.598087585717</v>
-      </c>
-      <c r="E51">
-        <v>9953691.026075777</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>1.508112049143268</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52">
-        <v>3.630902101050906</v>
+        <v>3.862271968041648</v>
       </c>
       <c r="C52">
         <v>12.5</v>
@@ -1652,7 +1622,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G52">
-        <v>34.70337121502738</v>
+        <v>36.91475399503328</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1660,25 +1630,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53">
-        <v>2.20489222539136</v>
+        <v>4.564700787137521</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D53">
-        <v>2956.804572094321</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>9953691.026075777</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>21.07387950909982</v>
+        <v>43.62841560936376</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1686,10 +1656,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54">
-        <v>1.742988141863037</v>
+        <v>2.850923843645562</v>
       </c>
       <c r="C54">
         <v>12.5</v>
@@ -1704,35 +1674,9 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G54">
-        <v>16.65910091405566</v>
+        <v>27.24850896507757</v>
       </c>
       <c r="H54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55">
-        <v>2.850923841987129</v>
-      </c>
-      <c r="C55">
-        <v>12.5</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G55">
-        <v>27.24850894922663</v>
-      </c>
-      <c r="H55">
         <v>0</v>
       </c>
     </row>
@@ -1743,7 +1687,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1772,7 +1716,7 @@
         <v>110</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>111</v>
@@ -1784,7 +1728,7 @@
         <v>113</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>114</v>
@@ -1813,28 +1757,28 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s">
-        <v>131</v>
-      </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F2">
-        <v>111.3026012987975</v>
+        <v>111.3433680344394</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2">
         <v>8.758481331682836</v>
@@ -1846,19 +1790,19 @@
         <v>24.85484</v>
       </c>
       <c r="N2">
-        <v>8758481.331682835</v>
+        <v>8700000</v>
       </c>
       <c r="O2">
-        <v>8084016.120199751</v>
+        <v>8019914.080380769</v>
       </c>
       <c r="P2">
-        <v>7.046244617232622</v>
+        <v>7.107300599322004</v>
       </c>
       <c r="Q2">
-        <v>0.01409551936213006</v>
+        <v>0.01422226503805844</v>
       </c>
       <c r="R2">
-        <v>17.44576641565897</v>
+        <v>17.51798945550813</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1869,28 +1813,28 @@
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F3">
-        <v>111.3026094744617</v>
+        <v>111.3433744976237</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3">
         <v>8.758481331682836</v>
@@ -1902,19 +1846,19 @@
         <v>18.64113</v>
       </c>
       <c r="N3">
-        <v>8084016.120199751</v>
+        <v>8019914.080380769</v>
       </c>
       <c r="O3">
-        <v>7537056.681839305</v>
+        <v>7467663.556467335</v>
       </c>
       <c r="P3">
-        <v>7.577651980516093</v>
+        <v>7.653522189918428</v>
       </c>
       <c r="Q3">
-        <v>0.01520075066756562</v>
+        <v>0.01535839817648074</v>
       </c>
       <c r="R3">
-        <v>18.09165773147273</v>
+        <v>18.17868473427961</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1925,28 +1869,28 @@
         <v>122</v>
       </c>
       <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
         <v>132</v>
       </c>
-      <c r="D4" t="s">
-        <v>133</v>
-      </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F4">
-        <v>111.1271654626128</v>
+        <v>111.156873259414</v>
       </c>
       <c r="G4">
         <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4">
         <v>8.758481331682836</v>
@@ -1961,16 +1905,16 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O4">
-        <v>8233816.922207145</v>
+        <v>8233532.17789487</v>
       </c>
       <c r="P4">
-        <v>6.902287388516327</v>
+        <v>6.904379756557859</v>
       </c>
       <c r="Q4">
-        <v>0.0137971156136528</v>
+        <v>0.01380131787650844</v>
       </c>
       <c r="R4">
-        <v>17.28033793889683</v>
+        <v>17.28064802982198</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1981,52 +1925,52 @@
         <v>123</v>
       </c>
       <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
         <v>133</v>
       </c>
-      <c r="D5" t="s">
-        <v>141</v>
-      </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F5">
-        <v>91.34151345003181</v>
+        <v>91.37122145424578</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>8.758481331682836</v>
       </c>
       <c r="L5">
-        <v>33.5</v>
+        <v>48.5</v>
       </c>
       <c r="M5">
-        <v>20.8159285</v>
+        <v>30.1364935</v>
       </c>
       <c r="N5">
-        <v>8233816.922207145</v>
+        <v>8233532.17789487</v>
       </c>
       <c r="O5">
-        <v>7831249.923763617</v>
+        <v>7643164.08408723</v>
       </c>
       <c r="P5">
-        <v>5.976342404170838</v>
+        <v>6.131038243294635</v>
       </c>
       <c r="Q5">
-        <v>0.0119705701187742</v>
+        <v>0.01229218545653768</v>
       </c>
       <c r="R5">
-        <v>17.73574577882708</v>
+        <v>17.96090190829794</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2037,84 +1981,84 @@
         <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F6">
-        <v>91.23528793845642</v>
+        <v>91.37122170773522</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>8.758481331682836</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>9.320565</v>
+        <v>31.06855</v>
       </c>
       <c r="N6">
-        <v>8758481.331682835</v>
+        <v>7643164.08408723</v>
       </c>
       <c r="O6">
-        <v>8592445.898031764</v>
+        <v>6980335.066057088</v>
       </c>
       <c r="P6">
-        <v>5.421562513096099</v>
+        <v>6.735960937747347</v>
       </c>
       <c r="Q6">
-        <v>0.010817786889716</v>
+        <v>0.01355109822815465</v>
       </c>
       <c r="R6">
-        <v>16.90233487107528</v>
+        <v>18.82612349650878</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>125</v>
       </c>
       <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
         <v>135</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>142</v>
       </c>
-      <c r="E7" t="s">
-        <v>145</v>
-      </c>
       <c r="F7">
-        <v>91.23528794192532</v>
+        <v>91.15132591097752</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>8.758481331682836</v>
@@ -2126,19 +2070,19 @@
         <v>31.06855</v>
       </c>
       <c r="N7">
-        <v>8592445.898031764</v>
+        <v>8758481.331682835</v>
       </c>
       <c r="O7">
-        <v>8013214.535870017</v>
+        <v>8192510.074455759</v>
       </c>
       <c r="P7">
-        <v>5.828761485088148</v>
+        <v>5.691181417435635</v>
       </c>
       <c r="Q7">
-        <v>0.01166420343975768</v>
+        <v>0.01137857992158023</v>
       </c>
       <c r="R7">
-        <v>17.52558844485032</v>
+        <v>17.32549337441154</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2149,28 +2093,28 @@
         <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F8">
-        <v>91.15132582982515</v>
+        <v>91.15132591306202</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K8">
         <v>8.758481331682836</v>
@@ -2182,51 +2126,51 @@
         <v>31.06855</v>
       </c>
       <c r="N8">
-        <v>8758481.331682835</v>
+        <v>8192510.074455759</v>
       </c>
       <c r="O8">
-        <v>8192510.074735221</v>
+        <v>7582705.757012463</v>
       </c>
       <c r="P8">
-        <v>5.691181399201526</v>
+        <v>6.16689650951651</v>
       </c>
       <c r="Q8">
-        <v>0.0113785798851081</v>
+        <v>0.01236789358695802</v>
       </c>
       <c r="R8">
-        <v>17.32549337410487</v>
+        <v>18.03506558542166</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>127</v>
       </c>
       <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
         <v>137</v>
       </c>
-      <c r="D9" t="s">
-        <v>143</v>
-      </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F9">
-        <v>91.15132582981279</v>
+        <v>91.01399329923966</v>
       </c>
       <c r="G9">
         <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <v>8.758481331682836</v>
@@ -2238,19 +2182,19 @@
         <v>31.06855</v>
       </c>
       <c r="N9">
-        <v>8192510.074735221</v>
+        <v>8758481.331682835</v>
       </c>
       <c r="O9">
-        <v>7582705.757627709</v>
+        <v>8194239.156867445</v>
       </c>
       <c r="P9">
-        <v>6.166896488335751</v>
+        <v>5.681362396768286</v>
       </c>
       <c r="Q9">
-        <v>0.01236789354444052</v>
+        <v>0.01135884942745763</v>
       </c>
       <c r="R9">
-        <v>18.0350655846624</v>
+        <v>17.3235962336056</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2261,28 +2205,28 @@
         <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F10">
-        <v>91.01399329892034</v>
+        <v>91.01399329783784</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K10">
         <v>8.758481331682836</v>
@@ -2294,75 +2238,19 @@
         <v>31.06855</v>
       </c>
       <c r="N10">
-        <v>8758481.331682835</v>
+        <v>8194239.156867445</v>
       </c>
       <c r="O10">
-        <v>8194239.156868475</v>
+        <v>7586452.421108091</v>
       </c>
       <c r="P10">
-        <v>5.681362396692132</v>
+        <v>6.154449485523625</v>
       </c>
       <c r="Q10">
-        <v>0.01135884942730532</v>
+        <v>0.0123426945515061</v>
       </c>
       <c r="R10">
-        <v>17.32359623360447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11">
-        <v>91.01399329889271</v>
-      </c>
-      <c r="G11">
-        <v>650</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11">
-        <v>9.525</v>
-      </c>
-      <c r="J11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11">
-        <v>8.758481331682836</v>
-      </c>
-      <c r="L11">
-        <v>50</v>
-      </c>
-      <c r="M11">
-        <v>31.06855</v>
-      </c>
-      <c r="N11">
-        <v>8194239.156868475</v>
-      </c>
-      <c r="O11">
-        <v>7586452.421105544</v>
-      </c>
-      <c r="P11">
-        <v>6.154449485795775</v>
-      </c>
-      <c r="Q11">
-        <v>0.01234269455205205</v>
-      </c>
-      <c r="R11">
-        <v>18.0304436291602</v>
+        <v>18.03044362915706</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +2260,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2380,7 +2268,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2395,81 +2283,81 @@
         <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.006721992147452</v>
+        <v>1.17285430248094</v>
       </c>
       <c r="I2">
-        <v>1.508112049143268</v>
+        <v>36.91475399503328</v>
       </c>
       <c r="J2">
-        <v>0.157788912608102</v>
+        <v>3.862271968041648</v>
       </c>
       <c r="K2">
-        <v>211.598087585717</v>
+        <v>5179.383954583211</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.157788912608102</v>
+        <v>12.5</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -2478,45 +2366,45 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>9953691.026075777</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R2">
-        <v>9953691.026075777</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>43.49597</v>
+        <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.162055919359951</v>
+        <v>1.254736520353048</v>
       </c>
       <c r="I3">
-        <v>34.70337121502738</v>
+        <v>43.62841560936376</v>
       </c>
       <c r="J3">
-        <v>3.630902101050906</v>
+        <v>4.564700787137521</v>
       </c>
       <c r="K3">
-        <v>4869.112335551286</v>
+        <v>6121.355049567158</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2541,44 +2429,41 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4">
-        <v>0</v>
-      </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F4">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="G4">
-        <v>83.885085</v>
+        <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.118401457870163</v>
+        <v>1.155060160890856</v>
       </c>
       <c r="I4">
-        <v>21.07387950909982</v>
+        <v>27.24850896507757</v>
       </c>
       <c r="J4">
-        <v>2.20489222539136</v>
+        <v>2.850923843645562</v>
       </c>
       <c r="K4">
-        <v>2956.804572094321</v>
+        <v>3823.145892805571</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.20489222539136</v>
+        <v>12.5</v>
       </c>
       <c r="N4">
         <v>0.78</v>
@@ -2587,118 +2472,12 @@
         <v>0.357</v>
       </c>
       <c r="P4">
-        <v>9953691.026075777</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R4">
-        <v>9953691.026075777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5">
-        <v>200</v>
-      </c>
-      <c r="G5">
-        <v>124.2742</v>
-      </c>
-      <c r="H5">
-        <v>1.093004722696084</v>
-      </c>
-      <c r="I5">
-        <v>16.65910091405566</v>
-      </c>
-      <c r="J5">
-        <v>1.742988141863037</v>
-      </c>
-      <c r="K5">
-        <v>2337.38195800117</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>12.5</v>
-      </c>
-      <c r="N5">
-        <v>0.78</v>
-      </c>
-      <c r="O5">
-        <v>0.357</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="R5">
-        <v>16916025.69007904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6">
-        <v>300</v>
-      </c>
-      <c r="G6">
-        <v>186.4113</v>
-      </c>
-      <c r="H6">
-        <v>1.155060160797137</v>
-      </c>
-      <c r="I6">
-        <v>27.24850894922663</v>
-      </c>
-      <c r="J6">
-        <v>2.850923841987129</v>
-      </c>
-      <c r="K6">
-        <v>3823.145890581579</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>12.5</v>
-      </c>
-      <c r="N6">
-        <v>0.78</v>
-      </c>
-      <c r="O6">
-        <v>0.357</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="R6">
         <v>16916025.69007904</v>
       </c>
     </row>
@@ -2709,7 +2488,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2717,15 +2496,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B2">
         <v>8700000</v>
@@ -2736,23 +2515,23 @@
         <v>130</v>
       </c>
       <c r="B3">
-        <v>8758481.331682835</v>
+        <v>8019914.080380769</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B4">
-        <v>8084016.120199751</v>
+        <v>7467663.556467335</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B5">
-        <v>7537056.681839305</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2760,7 +2539,7 @@
         <v>132</v>
       </c>
       <c r="B6">
-        <v>8758481.331682835</v>
+        <v>8233532.17789487</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2768,15 +2547,15 @@
         <v>133</v>
       </c>
       <c r="B7">
-        <v>8233816.922207145</v>
+        <v>7643164.08408723</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8">
-        <v>7831249.923763617</v>
+        <v>6980335.066057088</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2792,15 +2571,15 @@
         <v>135</v>
       </c>
       <c r="B10">
-        <v>8592445.898031764</v>
+        <v>8192510.074455759</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11">
-        <v>8013214.535870017</v>
+        <v>7582705.757012463</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2816,39 +2595,15 @@
         <v>137</v>
       </c>
       <c r="B13">
-        <v>8192510.074735221</v>
+        <v>8194239.156867445</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B14">
-        <v>7582705.757627709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15">
-        <v>8758481.331682835</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16">
-        <v>8194239.156868475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17">
-        <v>7586452.421105544</v>
+        <v>7586452.421108091</v>
       </c>
     </row>
   </sheetData>
@@ -2866,36 +2621,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2">
         <v>19.78565086669546</v>
       </c>
       <c r="C2">
-        <v>19.785652012581</v>
+        <v>19.78565180516824</v>
       </c>
       <c r="D2">
         <v>58.14923187271204</v>
@@ -2904,21 +2659,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520466632364</v>
+        <v>1150.520454571472</v>
       </c>
       <c r="G2">
-        <v>5.791497814695214E-06</v>
+        <v>4.743198948833679E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>51.44269156552292</v>
       </c>
       <c r="C3">
-        <v>51.44269156551098</v>
+        <v>51.44269156491475</v>
       </c>
       <c r="D3">
         <v>58.14923187271204</v>
@@ -2927,21 +2682,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352999999306</v>
+        <v>2991.352999964635</v>
       </c>
       <c r="G3">
-        <v>-2.321850397915872E-11</v>
+        <v>-1.182237603264802E-09</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B4">
         <v>39.57130173339092</v>
       </c>
       <c r="C4">
-        <v>39.57130173338173</v>
+        <v>39.57130173292309</v>
       </c>
       <c r="D4">
         <v>58.14923187271204</v>
@@ -2950,10 +2705,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799999466</v>
+        <v>2301.040799972796</v>
       </c>
       <c r="G4">
-        <v>-2.321712243705565E-11</v>
+        <v>-1.182241731150952E-09</v>
       </c>
     </row>
   </sheetData>

--- a/examples/wangetal2018/out/ResultFiles/AC_0.2_b.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_0.2_b.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="197">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -387,58 +387,154 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
     <t>PI01</t>
   </si>
   <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
     <t>PI02</t>
   </si>
   <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
     <t>PI03</t>
   </si>
   <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
     <t>PI04</t>
   </si>
   <si>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
     <t>PI05</t>
   </si>
   <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
     <t>PI06</t>
   </si>
   <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
     <t>PI07</t>
   </si>
   <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
     <t>PI08</t>
   </si>
   <si>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
     <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
   </si>
   <si>
     <t>N03</t>
@@ -1141,7 +1237,7 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.1326080038303631</v>
+        <v>0.1341347006259175</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
@@ -1174,7 +1270,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.03136208011072586</v>
+        <v>0.031381991683298</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -1196,7 +1292,7 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.006480768166328964</v>
+        <v>0.006484882762210725</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
@@ -1207,7 +1303,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.01536467673609206</v>
+        <v>0.01537443166544618</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
@@ -1229,7 +1325,7 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.01701801172198347</v>
+        <v>0.01701801172198348</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -1240,7 +1336,7 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.04545906832587318</v>
+        <v>0.04692069938970514</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -1284,7 +1380,7 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>0.001945463804765969</v>
+        <v>0.001953097288743741</v>
       </c>
       <c r="C15" t="s">
         <v>69</v>
@@ -1295,7 +1391,7 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>0.01446332065424047</v>
+        <v>0.01447810371480994</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
@@ -1306,7 +1402,7 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>0.0005146143103530781</v>
+        <v>0.0005234823997202223</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -1413,7 +1509,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>2587.000285667391</v>
+        <v>2670.179288645802</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -1424,7 +1520,7 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>107.7916785694746</v>
+        <v>111.2574703602418</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
@@ -1531,7 +1627,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>84</v>
@@ -1607,7 +1703,7 @@
         <v>101</v>
       </c>
       <c r="B52">
-        <v>3.862271968041648</v>
+        <v>3.974822372013191</v>
       </c>
       <c r="C52">
         <v>12.5</v>
@@ -1622,7 +1718,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G52">
-        <v>36.91475399503328</v>
+        <v>37.9904862347693</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1633,7 +1729,7 @@
         <v>102</v>
       </c>
       <c r="B53">
-        <v>4.564700787137521</v>
+        <v>4.724218021884663</v>
       </c>
       <c r="C53">
         <v>12.5</v>
@@ -1648,7 +1744,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>43.62841560936376</v>
+        <v>45.15304658496141</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1659,7 +1755,7 @@
         <v>103</v>
       </c>
       <c r="B54">
-        <v>2.850923843645562</v>
+        <v>2.941470851697919</v>
       </c>
       <c r="C54">
         <v>12.5</v>
@@ -1674,7 +1770,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G54">
-        <v>27.24850896507757</v>
+        <v>28.11393754051108</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1687,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1757,16 +1853,16 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F2">
-        <v>111.3433680344394</v>
+        <v>111.3599894075518</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -1784,25 +1880,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>24.85484</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
         <v>8700000</v>
       </c>
       <c r="O2">
-        <v>8019914.080380769</v>
+        <v>8476754.202064242</v>
       </c>
       <c r="P2">
-        <v>7.107300599322004</v>
+        <v>6.632446768962786</v>
       </c>
       <c r="Q2">
-        <v>0.01422226503805844</v>
+        <v>0.01315926577815749</v>
       </c>
       <c r="R2">
-        <v>17.51798945550813</v>
+        <v>17.12804673535513</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1813,16 +1909,16 @@
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F3">
-        <v>111.3433744976237</v>
+        <v>111.3599846292779</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -1840,45 +1936,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M3">
-        <v>18.64113</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N3">
-        <v>8019914.080380769</v>
+        <v>8476754.202064242</v>
       </c>
       <c r="O3">
-        <v>7467663.556467335</v>
+        <v>8247156.249845068</v>
       </c>
       <c r="P3">
-        <v>7.653522189918428</v>
+        <v>6.637568057563104</v>
       </c>
       <c r="Q3">
-        <v>0.01535839817648074</v>
+        <v>0.01318225271589652</v>
       </c>
       <c r="R3">
-        <v>18.17868473427961</v>
+        <v>17.37692399388337</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F4">
-        <v>111.156873259414</v>
+        <v>111.3599793252426</v>
       </c>
       <c r="G4">
         <v>650</v>
@@ -1896,45 +1992,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L4">
-        <v>31.5</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M4">
-        <v>19.5731865</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N4">
-        <v>8758481.331682835</v>
+        <v>8247156.249845068</v>
       </c>
       <c r="O4">
-        <v>8233532.17789487</v>
+        <v>8010637.823423402</v>
       </c>
       <c r="P4">
-        <v>6.904379756557859</v>
+        <v>6.642699030617529</v>
       </c>
       <c r="Q4">
-        <v>0.01380131787650844</v>
+        <v>0.01320574085268655</v>
       </c>
       <c r="R4">
-        <v>17.28064802982198</v>
+        <v>17.64458139811767</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F5">
-        <v>91.37122145424578</v>
+        <v>111.3599720671571</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -1952,45 +2048,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L5">
-        <v>48.5</v>
+        <v>15</v>
       </c>
       <c r="M5">
-        <v>30.1364935</v>
+        <v>9.320565</v>
       </c>
       <c r="N5">
-        <v>8233532.17789487</v>
+        <v>8010637.823423402</v>
       </c>
       <c r="O5">
-        <v>7643164.08408723</v>
+        <v>7735455.61826623</v>
       </c>
       <c r="P5">
-        <v>6.131038243294635</v>
+        <v>6.648485190587453</v>
       </c>
       <c r="Q5">
-        <v>0.01229218545653768</v>
+        <v>0.0132326015690482</v>
       </c>
       <c r="R5">
-        <v>17.96090190829794</v>
+        <v>17.97180028273407</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F6">
-        <v>91.37122170773522</v>
+        <v>111.3599642877714</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2008,45 +2104,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>31.06855</v>
+        <v>9.320565</v>
       </c>
       <c r="N6">
-        <v>7643164.08408723</v>
+        <v>7735455.61826623</v>
       </c>
       <c r="O6">
-        <v>6980335.066057088</v>
+        <v>7449576.148832415</v>
       </c>
       <c r="P6">
-        <v>6.735960937747347</v>
+        <v>6.654286192144542</v>
       </c>
       <c r="Q6">
-        <v>0.01355109822815465</v>
+        <v>0.01325992549378846</v>
       </c>
       <c r="R6">
-        <v>18.82612349650878</v>
+        <v>18.33133246027575</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F7">
-        <v>91.15132591097752</v>
+        <v>111.1689025334362</v>
       </c>
       <c r="G7">
         <v>650</v>
@@ -2064,45 +2160,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>15.75</v>
       </c>
       <c r="M7">
-        <v>31.06855</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N7">
         <v>8758481.331682835</v>
       </c>
       <c r="O7">
-        <v>8192510.074455759</v>
+        <v>8496918.850601459</v>
       </c>
       <c r="P7">
-        <v>5.691181417435635</v>
+        <v>6.578431200458652</v>
       </c>
       <c r="Q7">
-        <v>0.01137857992158023</v>
+        <v>0.01305097183140109</v>
       </c>
       <c r="R7">
-        <v>17.32549337441154</v>
+        <v>17.10669354535391</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F8">
-        <v>91.15132591306202</v>
+        <v>111.1689023532048</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2120,45 +2216,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>15.75</v>
       </c>
       <c r="M8">
-        <v>31.06855</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N8">
-        <v>8192510.074455759</v>
+        <v>8496918.850601459</v>
       </c>
       <c r="O8">
-        <v>7582705.757012463</v>
+        <v>8226615.089618172</v>
       </c>
       <c r="P8">
-        <v>6.16689650951651</v>
+        <v>6.584362319339492</v>
       </c>
       <c r="Q8">
-        <v>0.01236789358695802</v>
+        <v>0.01307774007073833</v>
       </c>
       <c r="R8">
-        <v>18.03506558542166</v>
+        <v>17.39968791073662</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F9">
-        <v>91.01399329923966</v>
+        <v>91.38325234028208</v>
       </c>
       <c r="G9">
         <v>650</v>
@@ -2176,45 +2272,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M9">
-        <v>31.06855</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N9">
-        <v>8758481.331682835</v>
+        <v>8226615.089618172</v>
       </c>
       <c r="O9">
-        <v>8194239.156867445</v>
+        <v>8032054.409684942</v>
       </c>
       <c r="P9">
-        <v>5.681362396768286</v>
+        <v>5.417506804056713</v>
       </c>
       <c r="Q9">
-        <v>0.01135884942745763</v>
+        <v>0.01076907526074553</v>
       </c>
       <c r="R9">
-        <v>17.3235962336056</v>
+        <v>17.61983451595798</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F10">
-        <v>91.01399329783784</v>
+        <v>91.38325219593001</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2232,25 +2328,921 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M10">
-        <v>31.06855</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N10">
-        <v>8194239.156867445</v>
+        <v>8032054.409684942</v>
       </c>
       <c r="O10">
-        <v>7586452.421108091</v>
+        <v>7832408.175842476</v>
       </c>
       <c r="P10">
-        <v>6.154449485523625</v>
+        <v>5.422538579477385</v>
       </c>
       <c r="Q10">
-        <v>0.0123426945515061</v>
+        <v>0.01078811851904729</v>
       </c>
       <c r="R10">
-        <v>18.03044362915706</v>
+        <v>17.85458970575013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11">
+        <v>91.38325205585363</v>
+      </c>
+      <c r="G11">
+        <v>650</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11">
+        <v>9.525</v>
+      </c>
+      <c r="J11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L11">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="M11">
+        <v>10.04549783333334</v>
+      </c>
+      <c r="N11">
+        <v>7832408.175842476</v>
+      </c>
+      <c r="O11">
+        <v>7627263.289575088</v>
+      </c>
+      <c r="P11">
+        <v>5.427584179334699</v>
+      </c>
+      <c r="Q11">
+        <v>0.01080754486523038</v>
+      </c>
+      <c r="R11">
+        <v>18.1053642896564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12">
+        <v>91.38325185794812</v>
+      </c>
+      <c r="G12">
+        <v>650</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12">
+        <v>9.525</v>
+      </c>
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L12">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M12">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N12">
+        <v>7627263.289575088</v>
+      </c>
+      <c r="O12">
+        <v>7409513.485826758</v>
+      </c>
+      <c r="P12">
+        <v>5.432800357350804</v>
+      </c>
+      <c r="Q12">
+        <v>0.01082773106887062</v>
+      </c>
+      <c r="R12">
+        <v>18.38332157952462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13">
+        <v>91.38325167738188</v>
+      </c>
+      <c r="G13">
+        <v>650</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13">
+        <v>9.525</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L13">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M13">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N13">
+        <v>7409513.485826758</v>
+      </c>
+      <c r="O13">
+        <v>7184817.987150718</v>
+      </c>
+      <c r="P13">
+        <v>5.438031366813878</v>
+      </c>
+      <c r="Q13">
+        <v>0.01084835266780107</v>
+      </c>
+      <c r="R13">
+        <v>18.68330956218793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14">
+        <v>91.38325142644442</v>
+      </c>
+      <c r="G14">
+        <v>650</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14">
+        <v>9.525</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L14">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M14">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N14">
+        <v>7184817.987150718</v>
+      </c>
+      <c r="O14">
+        <v>6952473.518239986</v>
+      </c>
+      <c r="P14">
+        <v>5.44327726313794</v>
+      </c>
+      <c r="Q14">
+        <v>0.01086921559208737</v>
+      </c>
+      <c r="R14">
+        <v>19.00907814126651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15">
+        <v>91.1556875301509</v>
+      </c>
+      <c r="G15">
+        <v>650</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15">
+        <v>9.525</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L15">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M15">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N15">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O15">
+        <v>8571822.2119294</v>
+      </c>
+      <c r="P15">
+        <v>5.395278995413867</v>
+      </c>
+      <c r="Q15">
+        <v>0.01070028209757008</v>
+      </c>
+      <c r="R15">
+        <v>17.02806890232468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16">
+        <v>91.15568752692037</v>
+      </c>
+      <c r="G16">
+        <v>650</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16">
+        <v>9.525</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L16">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M16">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N16">
+        <v>8571822.2119294</v>
+      </c>
+      <c r="O16">
+        <v>8380796.176403366</v>
+      </c>
+      <c r="P16">
+        <v>5.400429033278283</v>
+      </c>
+      <c r="Q16">
+        <v>0.0107192237113918</v>
+      </c>
+      <c r="R16">
+        <v>17.23076777015289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17">
+        <v>91.15568752464148</v>
+      </c>
+      <c r="G17">
+        <v>650</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17">
+        <v>9.525</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M17">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N17">
+        <v>8380796.176403366</v>
+      </c>
+      <c r="O17">
+        <v>8185081.59519545</v>
+      </c>
+      <c r="P17">
+        <v>5.4055936132249</v>
+      </c>
+      <c r="Q17">
+        <v>0.01073840307870775</v>
+      </c>
+      <c r="R17">
+        <v>17.4459903950581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18">
+        <v>91.15568752221219</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L18">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M18">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N18">
+        <v>8185081.59519545</v>
+      </c>
+      <c r="O18">
+        <v>7984323.078793087</v>
+      </c>
+      <c r="P18">
+        <v>5.410772803135615</v>
+      </c>
+      <c r="Q18">
+        <v>0.01075785303336826</v>
+      </c>
+      <c r="R18">
+        <v>17.67513135382083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19">
+        <v>91.15568751912319</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N19">
+        <v>7984323.078793087</v>
+      </c>
+      <c r="O19">
+        <v>7778110.194919406</v>
+      </c>
+      <c r="P19">
+        <v>5.415966671485901</v>
+      </c>
+      <c r="Q19">
+        <v>0.01077754354999096</v>
+      </c>
+      <c r="R19">
+        <v>17.91994949000694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20">
+        <v>91.15568751788678</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>7778110.194919406</v>
+      </c>
+      <c r="O20">
+        <v>7565984.567129556</v>
+      </c>
+      <c r="P20">
+        <v>5.421175287835569</v>
+      </c>
+      <c r="Q20">
+        <v>0.01079754109155305</v>
+      </c>
+      <c r="R20">
+        <v>18.18234682377292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21">
+        <v>91.01399329870084</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N21">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O21">
+        <v>8572396.711523501</v>
+      </c>
+      <c r="P21">
+        <v>5.386892474027773</v>
+      </c>
+      <c r="Q21">
+        <v>0.01068362306355111</v>
+      </c>
+      <c r="R21">
+        <v>17.02747004366793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22">
+        <v>91.0139932984452</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>8572396.711523501</v>
+      </c>
+      <c r="O22">
+        <v>8381972.647276633</v>
+      </c>
+      <c r="P22">
+        <v>5.392034507191156</v>
+      </c>
+      <c r="Q22">
+        <v>0.01070250818670585</v>
+      </c>
+      <c r="R22">
+        <v>17.22949717162503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23">
+        <v>91.01399329839475</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>8381972.647276633</v>
+      </c>
+      <c r="O23">
+        <v>8186890.613454849</v>
+      </c>
+      <c r="P23">
+        <v>5.397191059662685</v>
+      </c>
+      <c r="Q23">
+        <v>0.01072162808649034</v>
+      </c>
+      <c r="R23">
+        <v>17.44396595551323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24">
+        <v>91.01399329833932</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M24">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N24">
+        <v>8186890.613454849</v>
+      </c>
+      <c r="O24">
+        <v>7986798.75156553</v>
+      </c>
+      <c r="P24">
+        <v>5.40236219941864</v>
+      </c>
+      <c r="Q24">
+        <v>0.0107410190106629</v>
+      </c>
+      <c r="R24">
+        <v>17.67225047112911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25">
+        <v>91.01399329827109</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M25">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N25">
+        <v>7986798.75156553</v>
+      </c>
+      <c r="O25">
+        <v>7781291.00300254</v>
+      </c>
+      <c r="P25">
+        <v>5.40754799492557</v>
+      </c>
+      <c r="Q25">
+        <v>0.01076064491032702</v>
+      </c>
+      <c r="R25">
+        <v>17.91610086538234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26">
+        <v>91.01399329819894</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M26">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N26">
+        <v>7781291.00300254</v>
+      </c>
+      <c r="O26">
+        <v>7569913.88275066</v>
+      </c>
+      <c r="P26">
+        <v>5.412748515102528</v>
+      </c>
+      <c r="Q26">
+        <v>0.01078058128432241</v>
+      </c>
+      <c r="R26">
+        <v>18.1773810554387</v>
       </c>
     </row>
   </sheetData>
@@ -2268,7 +3260,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2283,43 +3275,43 @@
         <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2327,13 +3319,13 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2342,16 +3334,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.17285430248094</v>
+        <v>1.175701967024737</v>
       </c>
       <c r="I2">
-        <v>36.91475399503328</v>
+        <v>37.9904862347693</v>
       </c>
       <c r="J2">
-        <v>3.862271968041648</v>
+        <v>3.974822372013191</v>
       </c>
       <c r="K2">
-        <v>5179.383954583211</v>
+        <v>5330.316297317128</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2380,13 +3372,13 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2395,16 +3387,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.254736520353048</v>
+        <v>1.259764788561185</v>
       </c>
       <c r="I3">
-        <v>43.62841560936376</v>
+        <v>45.15304658496141</v>
       </c>
       <c r="J3">
-        <v>4.564700787137521</v>
+        <v>4.724218021884663</v>
       </c>
       <c r="K3">
-        <v>6121.355049567158</v>
+        <v>6335.270851707772</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2433,31 +3425,31 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G4">
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.155060160890856</v>
+        <v>1.157612899414847</v>
       </c>
       <c r="I4">
-        <v>27.24850896507757</v>
+        <v>28.11393754051108</v>
       </c>
       <c r="J4">
-        <v>2.850923843645562</v>
+        <v>2.941470851697919</v>
       </c>
       <c r="K4">
-        <v>3823.145892805571</v>
+        <v>3944.571241543943</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2488,7 +3480,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2496,15 +3488,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>8700000</v>
@@ -2512,98 +3504,226 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B3">
-        <v>8019914.080380769</v>
+        <v>8476754.202064242</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B4">
-        <v>7467663.556467335</v>
+        <v>8247156.249845068</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B5">
-        <v>8758481.331682835</v>
+        <v>8010637.823423402</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B6">
-        <v>8233532.17789487</v>
+        <v>7735455.61826623</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="B7">
-        <v>7643164.08408723</v>
+        <v>7449576.148832415</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B8">
-        <v>6980335.066057088</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B9">
-        <v>8758481.331682835</v>
+        <v>8496918.850601459</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B10">
-        <v>8192510.074455759</v>
+        <v>8226615.089618172</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B11">
-        <v>7582705.757012463</v>
+        <v>8032054.409684942</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B12">
-        <v>8758481.331682835</v>
+        <v>7832408.175842476</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B13">
-        <v>8194239.156867445</v>
+        <v>7627263.289575088</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B14">
-        <v>7586452.421108091</v>
+        <v>7409513.485826758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15">
+        <v>7184817.987150718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16">
+        <v>6952473.518239986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17">
+        <v>8758481.331682835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18">
+        <v>8571822.2119294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19">
+        <v>8380796.176403366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20">
+        <v>8185081.59519545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21">
+        <v>7984323.078793087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22">
+        <v>7778110.194919406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23">
+        <v>7565984.567129556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24">
+        <v>8758481.331682835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25">
+        <v>8572396.711523501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26">
+        <v>8381972.647276633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27">
+        <v>8186890.613454849</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28">
+        <v>7986798.75156553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29">
+        <v>7781291.00300254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30">
+        <v>7569913.88275066</v>
       </c>
     </row>
   </sheetData>
@@ -2621,36 +3741,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>19.78565086669546</v>
       </c>
       <c r="C2">
-        <v>19.78565180516824</v>
+        <v>19.78565001292267</v>
       </c>
       <c r="D2">
         <v>58.14923187271204</v>
@@ -2659,21 +3779,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520454571472</v>
+        <v>1150.520350353768</v>
       </c>
       <c r="G2">
-        <v>4.743198948833679E-06</v>
+        <v>-4.315110943556593E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>51.44269156552292</v>
       </c>
       <c r="C3">
-        <v>51.44269156491475</v>
+        <v>51.44269156511885</v>
       </c>
       <c r="D3">
         <v>58.14923187271204</v>
@@ -2682,21 +3802,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352999964635</v>
+        <v>2991.352999976504</v>
       </c>
       <c r="G3">
-        <v>-1.182237603264802E-09</v>
+        <v>-7.854788127821522E-10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="B4">
         <v>39.57130173339092</v>
       </c>
       <c r="C4">
-        <v>39.57130173292309</v>
+        <v>39.57130173308009</v>
       </c>
       <c r="D4">
         <v>58.14923187271204</v>
@@ -2705,10 +3825,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799972796</v>
+        <v>2301.040799981926</v>
       </c>
       <c r="G4">
-        <v>-1.182241731150952E-09</v>
+        <v>-7.854857084369678E-10</v>
       </c>
     </row>
   </sheetData>
